--- a/Dolgozat/Tesztek.xlsx
+++ b/Dolgozat/Tesztek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Projects\StrokeMonitor\Dolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6608F069-64C5-4135-9273-4BAD3AC8D7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2D8E45-BEAE-42C2-A7A5-35A1346B1CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Medisana BU A50</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>Százalékos eltérés</t>
+  </si>
+  <si>
+    <t>1.  3p pihenes 5p terhelés közeepes és gyors futással, 3p pihenés</t>
+  </si>
+  <si>
+    <t>kezdés</t>
+  </si>
+  <si>
+    <t>erőltetés</t>
+  </si>
+  <si>
+    <t>pihenés</t>
+  </si>
+  <si>
+    <t>Idő</t>
+  </si>
+  <si>
+    <t>Pulzus</t>
   </si>
 </sst>
 </file>
@@ -93,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -102,6 +120,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +550,397 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.6645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66527777777777775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66597222222222219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66736111111111107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66805555555555562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66875000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67013888888888884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67083333333333339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67152777777777783</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67222222222222217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFBA-44EC-B004-48729FA87463}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="165182208"/>
+        <c:axId val="165190944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165182208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165190944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165190944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165182208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1074,6 +1483,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1107,6 +2019,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6483C3B-7726-40C2-86C1-054F21F77E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1378,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,6 +2474,172 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.67013888888888884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="B38">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="B39">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="B40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="B41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="B42">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B43">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="B44">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="B45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="B46">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="B47">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="B48">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="B49">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="B50">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="B51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="B52">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="B53">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dolgozat/Tesztek.xlsx
+++ b/Dolgozat/Tesztek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Projects\StrokeMonitor\Dolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2D8E45-BEAE-42C2-A7A5-35A1346B1CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9EDB75-AD4F-4FE3-AAC5-C5EB3DE30711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Medisana BU A50</t>
   </si>
@@ -160,23 +160,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU"/>
+              <a:rPr lang="hu-HU" b="1"/>
               <a:t>Pulzus összehasonlítás</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -193,16 +193,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -396,16 +396,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -439,6 +439,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>Pulzus</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -455,16 +511,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -497,16 +553,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -537,7 +593,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -565,6 +624,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" b="1"/>
+              <a:t>Szaladás</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -578,16 +663,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -755,6 +840,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>Idő</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="h:mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -777,16 +922,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -803,6 +948,8 @@
         <c:axId val="165190944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="190"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -820,6 +967,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>Pulzus</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -836,22 +1039,572 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165182208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" b="1"/>
+              <a:t>Kerékpár</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pulzus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$59:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.75486111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75624999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75694444444444453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75763888888888886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75902777777777775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7597222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76041666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76180555555555562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7631944444444444</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76388888888888884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76458333333333339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76527777777777783</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76597222222222217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76736111111111116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7680555555555556</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76874999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0B8-401F-B515-13DC3384C78D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="924599007"/>
+        <c:axId val="924600255"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="924599007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>Idő</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924600255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="924600255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>Pulzus</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924599007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -887,7 +1640,545 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" b="1"/>
+              <a:t>Gimnasztika</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pulzus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$84:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.86944444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87013888888888891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87083333333333324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87152777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87361111111111101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87638888888888899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87847222222222221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87916666666666676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87986111111111109</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88124999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$84:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33EF-45CC-84F1-3AAAB76D0F51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1071413727"/>
+        <c:axId val="1071415391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1071413727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>Idő</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071415391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1071415391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>Pulzus</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071413727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -980,6 +2271,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1986,20 +3357,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2032,10 +4409,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2055,6 +4432,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082412C6-5091-4C57-B32A-3EF0DCE8D120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B381D641-88F1-4C79-A4DE-855EC7380812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2326,10 +4775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D53"/>
+  <dimension ref="A2:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2640,6 +5089,334 @@
         <v>110</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="B59">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="B60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="B61">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="B62">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="B63">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="B64">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="B65">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="B66">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="B67">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="B68">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="B69">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="B70">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="B71">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="B72">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="B73">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="B74">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="B75">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="B76">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="B77">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>0.7680555555555556</v>
+      </c>
+      <c r="B78">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="B79">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="B84">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="B85">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="B86">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="B87">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="B88">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>0.87291666666666667</v>
+      </c>
+      <c r="B89">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>0.87361111111111101</v>
+      </c>
+      <c r="B90">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="B91">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="B92">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="B93">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="B94">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="B95">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="B96">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="B97">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="B98">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="B99">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="B100">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="B101">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dolgozat/Tesztek.xlsx
+++ b/Dolgozat/Tesztek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Projects\StrokeMonitor\Dolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9EDB75-AD4F-4FE3-AAC5-C5EB3DE30711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9242B3E-81EA-4BBF-80D2-A80CD3AA15FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Medisana BU A50</t>
   </si>
@@ -111,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -121,6 +121,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +375,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1200" b="1"/>
+                  <a:t>Mérés</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -459,10 +516,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:rPr lang="hu-HU" sz="1200" b="1"/>
                   <a:t>Pulzus</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" b="1"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -540,6 +597,29 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,503 +710,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU" b="1"/>
-              <a:t>Szaladás</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.6645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66527777777777775</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66597222222222219</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66736111111111107</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66805555555555562</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66875000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67013888888888884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.67083333333333339</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.67152777777777783</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.67222222222222217</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$40:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>117</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CFBA-44EC-B004-48729FA87463}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="165182208"/>
-        <c:axId val="165190944"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="165182208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" b="1"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU" b="1"/>
-                  <a:t>Idő</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="165190944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="165190944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="190"/>
-          <c:min val="80"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="hu-HU" b="1"/>
-                  <a:t>Pulzus</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="165182208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
               <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1222,82 +805,79 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$59:$A$79</c:f>
+              <c:f>Sheet1!$A$59:$A$78</c:f>
               <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.75486111111111109</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75555555555555554</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75624999999999998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75694444444444453</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75763888888888886</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7583333333333333</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75902777777777775</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7597222222222223</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76041666666666663</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76111111111111107</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76180555555555562</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76250000000000007</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7631944444444444</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.76388888888888884</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.76458333333333339</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.76527777777777783</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76597222222222217</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.76666666666666661</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.76736111111111116</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7680555555555556</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.76874999999999993</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$59:$B$79</c:f>
+              <c:f>Sheet1!$B$59:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -1357,9 +937,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,10 +988,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU" b="1"/>
-                  <a:t>Idő</a:t>
+                  <a:rPr lang="hu-HU" sz="1200" b="1"/>
+                  <a:t>Perc</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" b="1"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1447,7 +1024,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1537,10 +1114,10 @@
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:rPr lang="hu-HU" sz="1200" b="1"/>
                   <a:t>Pulzus</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" b="1"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1656,7 +1233,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1774,61 +1351,61 @@
             <c:numRef>
               <c:f>Sheet1!$A$84:$A$101</c:f>
               <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.86944444444444446</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87013888888888891</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87083333333333324</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87152777777777779</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87222222222222223</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87291666666666667</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87361111111111101</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87430555555555556</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.875</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87569444444444444</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87638888888888899</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87708333333333333</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87777777777777777</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87847222222222221</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.87916666666666676</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87986111111111109</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88055555555555554</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88124999999999998</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,7 +1525,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="hu-HU" b="1"/>
-                  <a:t>Idő</a:t>
+                  <a:t>Perc</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" b="1"/>
               </a:p>
@@ -1983,7 +1560,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2191,6 +1768,520 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Szaladás</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E7B-4C3B-B65C-AE0B8205DEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1435183744"/>
+        <c:axId val="1493359296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1435183744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Perc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493359296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1493359296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Pulzus</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435183744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4368,15 +4459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4396,42 +4487,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6483C3B-7726-40C2-86C1-054F21F77E33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4467,7 +4522,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4492,6 +4547,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B381D641-88F1-4C79-A4DE-855EC7380812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0407A4-1B29-4EB0-8761-D6EC3B38AC5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4777,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M83" sqref="M83"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4951,9 +5042,6 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
@@ -4962,128 +5050,128 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>0.66319444444444442</v>
+      <c r="A38" s="5">
+        <v>1</v>
       </c>
       <c r="B38">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>0.66388888888888886</v>
+      <c r="A39" s="5">
+        <v>2</v>
       </c>
       <c r="B39">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>0.6645833333333333</v>
+      <c r="A40" s="5">
+        <v>3</v>
       </c>
       <c r="B40">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>0.66527777777777775</v>
+      <c r="A41" s="5">
+        <v>4</v>
       </c>
       <c r="B41">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>0.66597222222222219</v>
+      <c r="A42" s="5">
+        <v>5</v>
       </c>
       <c r="B42">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>0.66666666666666663</v>
+      <c r="A43" s="5">
+        <v>6</v>
       </c>
       <c r="B43">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>0.66736111111111107</v>
+      <c r="A44" s="5">
+        <v>7</v>
       </c>
       <c r="B44">
         <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>0.66805555555555562</v>
+      <c r="A45" s="5">
+        <v>8</v>
       </c>
       <c r="B45">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>0.66875000000000007</v>
+      <c r="A46" s="5">
+        <v>9</v>
       </c>
       <c r="B46">
         <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>0.6694444444444444</v>
+      <c r="A47" s="5">
+        <v>10</v>
       </c>
       <c r="B47">
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>0.67013888888888884</v>
+      <c r="A48" s="5">
+        <v>11</v>
       </c>
       <c r="B48">
         <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>0.67083333333333339</v>
+      <c r="A49" s="5">
+        <v>12</v>
       </c>
       <c r="B49">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>0.67152777777777783</v>
+      <c r="A50" s="5">
+        <v>13</v>
       </c>
       <c r="B50">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>0.67222222222222217</v>
+      <c r="A51" s="5">
+        <v>14</v>
       </c>
       <c r="B51">
         <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>0.67291666666666661</v>
+      <c r="A52" s="5">
+        <v>15</v>
       </c>
       <c r="B52">
         <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>0.67361111111111116</v>
+      <c r="A53" s="5">
+        <v>16</v>
       </c>
       <c r="B53">
         <v>110</v>
@@ -5098,172 +5186,175 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>0.75486111111111109</v>
+      <c r="A59" s="5">
+        <v>1</v>
       </c>
       <c r="B59">
         <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>0.75555555555555554</v>
+      <c r="A60" s="5">
+        <v>2</v>
       </c>
       <c r="B60">
         <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>0.75624999999999998</v>
+      <c r="A61" s="5">
+        <v>3</v>
       </c>
       <c r="B61">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>0.75694444444444453</v>
+      <c r="A62" s="5">
+        <v>4</v>
       </c>
       <c r="B62">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>0.75763888888888886</v>
+      <c r="A63" s="5">
+        <v>5</v>
       </c>
       <c r="B63">
         <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>0.7583333333333333</v>
+      <c r="A64" s="5">
+        <v>6</v>
       </c>
       <c r="B64">
         <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>0.75902777777777775</v>
+      <c r="A65" s="5">
+        <v>7</v>
       </c>
       <c r="B65">
         <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>0.7597222222222223</v>
+      <c r="A66" s="5">
+        <v>8</v>
       </c>
       <c r="B66">
         <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>0.76041666666666663</v>
+      <c r="A67" s="5">
+        <v>9</v>
       </c>
       <c r="B67">
         <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>0.76111111111111107</v>
+      <c r="A68" s="5">
+        <v>10</v>
       </c>
       <c r="B68">
         <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>0.76180555555555562</v>
+      <c r="A69" s="5">
+        <v>11</v>
       </c>
       <c r="B69">
         <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>0.76250000000000007</v>
+      <c r="A70" s="5">
+        <v>12</v>
       </c>
       <c r="B70">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>0.7631944444444444</v>
+      <c r="A71" s="5">
+        <v>13</v>
       </c>
       <c r="B71">
         <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>0.76388888888888884</v>
+      <c r="A72" s="5">
+        <v>14</v>
       </c>
       <c r="B72">
         <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>0.76458333333333339</v>
+      <c r="A73" s="5">
+        <v>15</v>
       </c>
       <c r="B73">
         <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>0.76527777777777783</v>
+      <c r="A74" s="5">
+        <v>16</v>
       </c>
       <c r="B74">
         <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>0.76597222222222217</v>
+      <c r="A75" s="5">
+        <v>17</v>
       </c>
       <c r="B75">
         <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>0.76666666666666661</v>
+      <c r="A76" s="5">
+        <v>18</v>
       </c>
       <c r="B76">
         <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>0.76736111111111116</v>
+      <c r="A77" s="5">
+        <v>19</v>
       </c>
       <c r="B77">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
-        <v>0.7680555555555556</v>
+      <c r="A78" s="5">
+        <v>20</v>
       </c>
       <c r="B78">
         <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
-        <v>0.76874999999999993</v>
+      <c r="A79" s="5">
+        <v>21</v>
       </c>
       <c r="B79">
         <v>99</v>
       </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -5274,144 +5365,144 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <v>0.86944444444444446</v>
+      <c r="A84" s="5">
+        <v>1</v>
       </c>
       <c r="B84">
         <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
-        <v>0.87013888888888891</v>
+      <c r="A85" s="5">
+        <v>2</v>
       </c>
       <c r="B85">
         <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
-        <v>0.87083333333333324</v>
+      <c r="A86" s="5">
+        <v>3</v>
       </c>
       <c r="B86">
         <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
-        <v>0.87152777777777779</v>
+      <c r="A87" s="5">
+        <v>4</v>
       </c>
       <c r="B87">
         <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
-        <v>0.87222222222222223</v>
+      <c r="A88" s="5">
+        <v>5</v>
       </c>
       <c r="B88">
         <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <v>0.87291666666666667</v>
+      <c r="A89" s="5">
+        <v>6</v>
       </c>
       <c r="B89">
         <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>0.87361111111111101</v>
+      <c r="A90" s="5">
+        <v>7</v>
       </c>
       <c r="B90">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
-        <v>0.87430555555555556</v>
+      <c r="A91" s="5">
+        <v>8</v>
       </c>
       <c r="B91">
         <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>0.875</v>
+      <c r="A92" s="5">
+        <v>9</v>
       </c>
       <c r="B92">
         <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <v>0.87569444444444444</v>
+      <c r="A93" s="5">
+        <v>10</v>
       </c>
       <c r="B93">
         <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>0.87638888888888899</v>
+      <c r="A94" s="5">
+        <v>11</v>
       </c>
       <c r="B94">
         <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
-        <v>0.87708333333333333</v>
+      <c r="A95" s="5">
+        <v>12</v>
       </c>
       <c r="B95">
         <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
-        <v>0.87777777777777777</v>
+      <c r="A96" s="5">
+        <v>13</v>
       </c>
       <c r="B96">
         <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
-        <v>0.87847222222222221</v>
+      <c r="A97" s="5">
+        <v>14</v>
       </c>
       <c r="B97">
         <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
-        <v>0.87916666666666676</v>
+      <c r="A98" s="5">
+        <v>15</v>
       </c>
       <c r="B98">
         <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
-        <v>0.87986111111111109</v>
+      <c r="A99" s="5">
+        <v>16</v>
       </c>
       <c r="B99">
         <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <v>0.88055555555555554</v>
+      <c r="A100" s="5">
+        <v>17</v>
       </c>
       <c r="B100">
         <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
-        <v>0.88124999999999998</v>
+      <c r="A101" s="5">
+        <v>18</v>
       </c>
       <c r="B101">
         <v>105</v>
